--- a/data/trans_orig/P38B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24E888ED-459B-40C5-ADFA-99785C7F39BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE33286-B02C-46B6-B6B0-7FD22B9938A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF8256B0-2870-4B9E-B161-4C63EF2B0EB4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{965B65D1-E371-4C30-8CD7-8537A12E5D79}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>88,08%</t>
   </si>
   <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,595 +139,601 @@
     <t>77,73%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>84,07%</t>
   </si>
   <si>
-    <t>82,39%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>81,18%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>18,82%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97553055-CAFE-44C0-8E08-E5435DD3A1E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7ABB5-BDAE-41B4-9AE4-1D704F43B005}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1466,7 +1472,7 @@
         <v>425</v>
       </c>
       <c r="D8" s="7">
-        <v>434849</v>
+        <v>434850</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1517,7 +1523,7 @@
         <v>1845</v>
       </c>
       <c r="D9" s="7">
-        <v>1952192</v>
+        <v>1952193</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1890,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF905F-B491-4F18-BECC-DFDAAA11BB6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607106B8-1322-48EB-888F-8C7563DBB622}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2044,13 +2050,13 @@
         <v>1593273</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2071,13 @@
         <v>82851</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -2080,13 +2086,13 @@
         <v>65709</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>144</v>
@@ -2095,13 +2101,13 @@
         <v>148560</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2175,13 @@
         <v>1628539</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1615</v>
@@ -2184,13 +2190,13 @@
         <v>1694146</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>3151</v>
@@ -2199,13 +2205,13 @@
         <v>3322685</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2226,13 @@
         <v>423734</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>287</v>
@@ -2235,13 +2241,13 @@
         <v>288373</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>683</v>
@@ -2250,13 +2256,13 @@
         <v>712107</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2330,13 @@
         <v>442862</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>437</v>
@@ -2339,13 +2345,13 @@
         <v>458207</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>841</v>
@@ -2354,13 +2360,13 @@
         <v>901069</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2381,13 @@
         <v>101113</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -2390,7 +2396,7 @@
         <v>89908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>136</v>
@@ -2641,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95ABB78-37EF-4437-A05B-299F5C316F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7D4C3B-0D20-486F-A64B-7F2CF5045C59}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2792,7 +2798,7 @@
         <v>1982</v>
       </c>
       <c r="N4" s="7">
-        <v>1266017</v>
+        <v>1266016</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>166</v>
@@ -2894,7 +2900,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1373939</v>
+        <v>1373938</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3266,7 +3272,7 @@
         <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3287,13 @@
         <v>695667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>503</v>
@@ -3296,13 +3302,13 @@
         <v>504906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>986</v>
@@ -3311,13 +3317,13 @@
         <v>1200572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE33286-B02C-46B6-B6B0-7FD22B9938A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EF281E-7479-49E3-BBDD-7C5D5D91669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{965B65D1-E371-4C30-8CD7-8537A12E5D79}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4098963A-6EC0-4BDB-AA0E-76AE17B3B418}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -76,445 +76,445 @@
     <t>88,08%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
     <t>91,47%</t>
   </si>
   <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>79,35%</t>
   </si>
   <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>81,85%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7ABB5-BDAE-41B4-9AE4-1D704F43B005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA81447-476E-47CA-A115-80F71FAFC5A9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607106B8-1322-48EB-888F-8C7563DBB622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE1E451-9577-4AB6-945A-D4A6B1623429}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2050,13 +2050,13 @@
         <v>1593273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2071,13 @@
         <v>82851</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -2086,13 +2086,13 @@
         <v>65709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>144</v>
@@ -2101,13 +2101,13 @@
         <v>148560</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2175,13 @@
         <v>1628539</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1615</v>
@@ -2190,28 +2190,28 @@
         <v>1694146</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>3151</v>
       </c>
       <c r="N7" s="7">
-        <v>3322685</v>
+        <v>3322684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2226,13 @@
         <v>423734</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>287</v>
@@ -2241,13 +2241,13 @@
         <v>288373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>683</v>
@@ -2256,13 +2256,13 @@
         <v>712107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2304,7 @@
         <v>3834</v>
       </c>
       <c r="N9" s="7">
-        <v>4034792</v>
+        <v>4034791</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2330,13 +2330,13 @@
         <v>442862</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>437</v>
@@ -2345,13 +2345,13 @@
         <v>458207</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>841</v>
@@ -2360,13 +2360,13 @@
         <v>901069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2381,13 @@
         <v>101113</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -2396,13 +2396,13 @@
         <v>89908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>183</v>
@@ -2411,13 +2411,13 @@
         <v>191021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2485,13 @@
         <v>2739762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>2877</v>
@@ -2500,13 +2500,13 @@
         <v>3077264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>5495</v>
@@ -2515,13 +2515,13 @@
         <v>5817026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2536,13 @@
         <v>607698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -2551,13 +2551,13 @@
         <v>443990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>1010</v>
@@ -2566,7 +2566,7 @@
         <v>1051688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>157</v>
@@ -2647,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7D4C3B-0D20-486F-A64B-7F2CF5045C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309643E4-FE0B-4159-BDA5-8F4C0A12FBDB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P38B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EF281E-7479-49E3-BBDD-7C5D5D91669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C03FA6-8DB8-4600-A056-1F3D2E2A7FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4098963A-6EC0-4BDB-AA0E-76AE17B3B418}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0B3C820-04D3-4D53-8833-B3BBB945149A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,19 +139,19 @@
     <t>77,73%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
   </si>
   <si>
     <t>84,07%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>80,72%</t>
@@ -160,31 +160,31 @@
     <t>79,34%</t>
   </si>
   <si>
-    <t>81,91%</t>
+    <t>82,0%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>18,09%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>20,66%</t>
@@ -196,25 +196,25 @@
     <t>87,9%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>85,11%</t>
+    <t>85,27%</t>
   </si>
   <si>
     <t>89,67%</t>
@@ -223,19 +223,19 @@
     <t>12,1%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>12,53%</t>
@@ -244,61 +244,61 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>14,89%</t>
+    <t>14,73%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,211 +310,211 @@
     <t>88,97%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>91,47%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>79,35%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
@@ -523,217 +523,211 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>75,68%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>88,65%</t>
   </si>
   <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>86,09%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>11,35%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>81,18%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>18,82%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA81447-476E-47CA-A115-80F71FAFC5A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3450E4A1-99B7-4304-8D97-31BC3F084E1E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1472,7 +1466,7 @@
         <v>425</v>
       </c>
       <c r="D8" s="7">
-        <v>434850</v>
+        <v>434849</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1523,7 +1517,7 @@
         <v>1845</v>
       </c>
       <c r="D9" s="7">
-        <v>1952193</v>
+        <v>1952192</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1896,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE1E451-9577-4AB6-945A-D4A6B1623429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20487709-D3A8-42C6-A0FA-911BBA838841}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2202,7 +2196,7 @@
         <v>3151</v>
       </c>
       <c r="N7" s="7">
-        <v>3322684</v>
+        <v>3322685</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2304,7 +2298,7 @@
         <v>3834</v>
       </c>
       <c r="N9" s="7">
-        <v>4034791</v>
+        <v>4034792</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2345,13 +2339,13 @@
         <v>458207</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>841</v>
@@ -2360,13 +2354,13 @@
         <v>901069</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2375,13 @@
         <v>101113</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -2396,13 +2390,13 @@
         <v>89908</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>183</v>
@@ -2411,13 +2405,13 @@
         <v>191021</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2479,13 @@
         <v>2739762</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>2877</v>
@@ -2500,13 +2494,13 @@
         <v>3077264</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>5495</v>
@@ -2515,13 +2509,13 @@
         <v>5817026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2530,13 @@
         <v>607698</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -2551,13 +2545,13 @@
         <v>443990</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>1010</v>
@@ -2566,7 +2560,7 @@
         <v>1051688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>157</v>
@@ -2647,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309643E4-FE0B-4159-BDA5-8F4C0A12FBDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DDD43D-4FF3-4749-9F48-17CDA2BC8BFB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2798,7 +2792,7 @@
         <v>1982</v>
       </c>
       <c r="N4" s="7">
-        <v>1266016</v>
+        <v>1266017</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>166</v>
@@ -2900,7 +2894,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1373938</v>
+        <v>1373939</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3272,7 +3266,7 @@
         <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3281,13 @@
         <v>695667</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>503</v>
@@ -3302,13 +3296,13 @@
         <v>504906</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>986</v>
@@ -3317,13 +3311,13 @@
         <v>1200572</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C03FA6-8DB8-4600-A056-1F3D2E2A7FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A8F8A5D-55CF-4ECC-995C-C1E28F4ED63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0B3C820-04D3-4D53-8833-B3BBB945149A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05FC58A7-CDE4-4F15-ABC8-750270696609}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -520,214 +520,208 @@
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>89,26%</t>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3450E4A1-99B7-4304-8D97-31BC3F084E1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6063070-14F2-4D20-A711-873525D99073}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1275,7 +1269,7 @@
         <v>1154</v>
       </c>
       <c r="I4" s="7">
-        <v>1234872</v>
+        <v>1234873</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1377,7 +1371,7 @@
         <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>1328138</v>
+        <v>1328139</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1466,7 +1460,7 @@
         <v>425</v>
       </c>
       <c r="D8" s="7">
-        <v>434849</v>
+        <v>434850</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1517,7 +1511,7 @@
         <v>1845</v>
       </c>
       <c r="D9" s="7">
-        <v>1952192</v>
+        <v>1952193</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1734,7 @@
         <v>2869</v>
       </c>
       <c r="I13" s="7">
-        <v>3103255</v>
+        <v>3103256</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1842,7 +1836,7 @@
         <v>3276</v>
       </c>
       <c r="I15" s="7">
-        <v>3534384</v>
+        <v>3534385</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1890,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20487709-D3A8-42C6-A0FA-911BBA838841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DFB01-0691-4E4C-8A87-27D4FEAC830E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2196,7 +2190,7 @@
         <v>3151</v>
       </c>
       <c r="N7" s="7">
-        <v>3322685</v>
+        <v>3322684</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2298,7 +2292,7 @@
         <v>3834</v>
       </c>
       <c r="N9" s="7">
-        <v>4034792</v>
+        <v>4034791</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2641,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DDD43D-4FF3-4749-9F48-17CDA2BC8BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECC706F-74CC-44A8-A525-7A8369863E98}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,46 +2756,46 @@
         <v>624</v>
       </c>
       <c r="D4" s="7">
-        <v>481773</v>
+        <v>459736</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>1358</v>
       </c>
       <c r="I4" s="7">
-        <v>784245</v>
+        <v>710998</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>1982</v>
       </c>
       <c r="N4" s="7">
-        <v>1266017</v>
+        <v>1170734</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,46 +2807,46 @@
         <v>65</v>
       </c>
       <c r="D5" s="7">
-        <v>57975</v>
+        <v>53429</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
       </c>
       <c r="I5" s="7">
-        <v>49946</v>
+        <v>42868</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>130</v>
       </c>
       <c r="N5" s="7">
-        <v>107922</v>
+        <v>96297</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2858,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539748</v>
+        <v>513165</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2879,7 +2873,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>834191</v>
+        <v>753866</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2894,7 +2888,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1373939</v>
+        <v>1267031</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2917,46 +2911,46 @@
         <v>1663</v>
       </c>
       <c r="D7" s="7">
-        <v>1636227</v>
+        <v>1597291</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>2562</v>
       </c>
       <c r="I7" s="7">
-        <v>1873681</v>
+        <v>1861259</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>4225</v>
       </c>
       <c r="N7" s="7">
-        <v>3509908</v>
+        <v>3458550</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,46 +2962,46 @@
         <v>329</v>
       </c>
       <c r="D8" s="7">
-        <v>525795</v>
+        <v>693036</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
       </c>
       <c r="I8" s="7">
-        <v>373921</v>
+        <v>374759</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>685</v>
       </c>
       <c r="N8" s="7">
-        <v>899716</v>
+        <v>1067795</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3013,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3034,7 +3028,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247602</v>
+        <v>2236018</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3049,7 +3043,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4409624</v>
+        <v>4526345</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3072,46 +3066,46 @@
         <v>592</v>
       </c>
       <c r="D10" s="7">
-        <v>561143</v>
+        <v>538308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>922</v>
       </c>
       <c r="I10" s="7">
-        <v>632847</v>
+        <v>588319</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>1514</v>
       </c>
       <c r="N10" s="7">
-        <v>1193991</v>
+        <v>1126627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,46 +3117,46 @@
         <v>89</v>
       </c>
       <c r="D11" s="7">
-        <v>111896</v>
+        <v>108315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>82</v>
       </c>
       <c r="I11" s="7">
-        <v>81039</v>
+        <v>72144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>171</v>
       </c>
       <c r="N11" s="7">
-        <v>192935</v>
+        <v>180459</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,7 +3168,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3189,7 +3183,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3204,7 +3198,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3227,46 +3221,46 @@
         <v>2879</v>
       </c>
       <c r="D13" s="7">
-        <v>2679141</v>
+        <v>2595336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>4842</v>
       </c>
       <c r="I13" s="7">
-        <v>3290774</v>
+        <v>3160576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>7721</v>
       </c>
       <c r="N13" s="7">
-        <v>5969916</v>
+        <v>5755912</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,46 +3272,46 @@
         <v>483</v>
       </c>
       <c r="D14" s="7">
-        <v>695667</v>
+        <v>854780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>503</v>
       </c>
       <c r="I14" s="7">
-        <v>504906</v>
+        <v>489771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>986</v>
       </c>
       <c r="N14" s="7">
-        <v>1200572</v>
+        <v>1344551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3323,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3374808</v>
+        <v>3450116</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3344,7 +3338,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3795680</v>
+        <v>3650347</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3359,7 +3353,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7170488</v>
+        <v>7100463</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
